--- a/biology/Botanique/Amyris/Amyris.xlsx
+++ b/biology/Botanique/Amyris/Amyris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amyris est un genre de plantes à fleurs de la famille des rutacées[1]. Le nom générique dérive du grec αμυρων (amyron), qui signifie « fortement odorant » en référence à l'odeur très prononcée de la résine[2]. Les espèces appartenant à ce genre sont globalement désignées par le terme de bois chandelle ou bois torche (en anglais torchwoods)[3] en raison du caractère hautement inflammable de leur bois[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amyris est un genre de plantes à fleurs de la famille des rutacées. Le nom générique dérive du grec αμυρων (amyron), qui signifie « fortement odorant » en référence à l'odeur très prononcée de la résine. Les espèces appartenant à ce genre sont globalement désignées par le terme de bois chandelle ou bois torche (en anglais torchwoods) en raison du caractère hautement inflammable de leur bois.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tronc des différentes espèces d'amyris exsude de l'« élémi »[N 1], un type de baume (oléorésine) qui contient des acides élémiques, des sesquiterpènes et des triterpènes liquides comme l'α- et la β-amyrine entre autres molécules[5]. Ces plantes ont un usage médicinal[réf. nécessaire] et en laquerie. On utilise souvent leur bois pour confectionner des torches et comme combustible. Sa forte teneur en résine donne au feu de ce bois une lumière éclatante et il brûle bien même s'il est vert. En outre, le bois est dur, lourd, de texture fine, brillant au polissage, et répulsif pour les termites. Des huiles essentielles contenant des caryophyllènes, des cadinènes, et des cadinols sont extraites d' A. balsamifera et d' A. elemifera. Elles sont utilisées dans la fabrication de vernis, de parfums, de remèdes phytothérapiques, de cosmétiques de savons et d'encens[4].
-Des composés chimiques connus sous le nom d'amides chromenylés ont été isolés à partir d 'Amyris plumieri et ont démontré une certaine action inhibitrice sur le cytochrome P450, ce qui leur conférerait des propriétés anticancéreuses[6]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tronc des différentes espèces d'amyris exsude de l'« élémi »[N 1], un type de baume (oléorésine) qui contient des acides élémiques, des sesquiterpènes et des triterpènes liquides comme l'α- et la β-amyrine entre autres molécules. Ces plantes ont un usage médicinal[réf. nécessaire] et en laquerie. On utilise souvent leur bois pour confectionner des torches et comme combustible. Sa forte teneur en résine donne au feu de ce bois une lumière éclatante et il brûle bien même s'il est vert. En outre, le bois est dur, lourd, de texture fine, brillant au polissage, et répulsif pour les termites. Des huiles essentielles contenant des caryophyllènes, des cadinènes, et des cadinols sont extraites d' A. balsamifera et d' A. elemifera. Elles sont utilisées dans la fabrication de vernis, de parfums, de remèdes phytothérapiques, de cosmétiques de savons et d'encens.
+Des composés chimiques connus sous le nom d'amides chromenylés ont été isolés à partir d 'Amyris plumieri et ont démontré une certaine action inhibitrice sur le cytochrome P450, ce qui leur conférerait des propriétés anticancéreuses
 </t>
         </is>
       </c>
@@ -543,14 +557,16 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Amyris balsamifera L. – Balsamier bois de rose, (en anglais Balsam Torchwood)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amyris balsamifera L. – Balsamier bois de rose, (en anglais Balsam Torchwood)
 Amyris diatrypa Spreng. – Hairy Torchwood
 Amyris elemifera L. – Bois chandelle blanc (en anglais Sea Torchwood) (Floride, Caraïbes, Amérique Centrale)
 Amyris madrensis S.Watson – Mountain Torchwood
 Amyris polymorpha Urb. (Cuba)
-Amyris texana (Buckley) P.Wilson – Texas Torchwood, Chapotillo[7],[8],[3]
+Amyris texana (Buckley) P.Wilson – Texas Torchwood, Chapotillo
 Selon (en) Référence World Flora Online (WFO) : Amyris  (+descriptions) :
 Amyris abeggii Ekman ex Urb.
 Amyris amazonica Cornejo &amp; Kallunki
@@ -610,8 +626,43 @@
 Amyris trimera Krug &amp; Urb.
 Amyris verrucosa Borhidi &amp; Kereszty
 Amyris vestita Lundell
-Espèces anciennement classées sous ce genre
-Atalantia simplicifolia (Roxb.) Engl. (ex A. simplicifolia Roxb.)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amyris</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amyris</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces anciennement classées sous ce genre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Atalantia simplicifolia (Roxb.) Engl. (ex A. simplicifolia Roxb.)
 Boswellia papyrifera (Delile ex Caill.) Hochst. (ex A. papyrifera Delile ex Caill.)
 Canarium zeylanicum (Retz.) Blume (ex A. zeylanica Retz.)
 Clausena anisata (Willd.) Hook.f. (ex A. anisata Willd. or A. dentata Willd.)
@@ -619,7 +670,7 @@
 Commiphora gileadensis (L.) C.Chr. (ex A. gileadensis L. or A. opobalsamum L.)
 Commiphora kataf (Forssk.) Engl. (ex A. kataf Forssk.)
 Metopium toxiferum (L.) Krug &amp; Urb. (ex A. toxifera L.)
-Schinus polygama (Cav.) Cabrera (ex A. polygama Cav.)[7]</t>
+Schinus polygama (Cav.) Cabrera (ex A. polygama Cav.)</t>
         </is>
       </c>
     </row>
